--- a/500all/speech_level/speeches_CHRG-114hhrg21523.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21523.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400654</t>
   </si>
   <si>
-    <t>Michael T. McCaul</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman McCaul. The Committee on Homeland Security will come to order. The committee is meeting today to examine the administration's flawed implementation of the Visa Waiver Program Improvement and Terrorist Travel Prevention Act. I now recognize myself for an opening statement.    We are holding this hearing today because Congress is confronted with a dilemma, which has grave implications for our National security and for our democratic process. In December, the President signed important measures into law to improve counterterrorism screening of foreign travelers coming into the United States.    These enhancements were urgently needed in the wake of the Paris attacks and in light of the high terror threat environment. But now the President has decided that he is going to break this law.    He plans to do so, in part, to accommodate the world's leading state sponsor of terror, Iran. I believe this decision could have serious consequences for our security and, perhaps, more importantly, far-reaching consequences for our democracy.    This legislation at issue is H.R. 158, the Visa Waiver Program Improvement and Terrorist Travel Prevention Act of 2015. It was authorized by this committee's Vice Chair, Mrs. Miller, and it implements several major recommendations from the committee's bipartisan Task Force on Combating Terrorist and Foreign Fighter Travel.    The bill passed the House overwhelmingly, 407-19, and it was included in the year-end spending bill signed by the President. This was one of the most significant pieces of security legislation Congress considered last year.    It tightens security checks overseas and makes it harder for terrorists to exploit the Visa Waiver Program to get into the United States. The threat is real. For instance, more than 6,000 Westerners have gone to fight in Syria and Iraq, and many of them are from Visa Waiver Program countries.    This means, they can enter the United States more quickly and easily than other travelers. Nearly 2,000 of these individuals have already come back from the battlefield. Accordingly, the new law sends a clear message to Visa Waiver Program citizens. If you have recently visited Syria, Iraq, Iran, or Sudan, you must go through additional screening before coming to the United States.    The law requires these individuals to get a regular visa, which includes an in-person interview and the submission of their fingerprints. Congress included specific exceptions, including allowing individuals to still travel visa-free to America, if their reason for being in a terrorist hotspot was for military service or official Government business.    But during bipartisan negotiations over the bill, the administration asked for other exceptions. They wanted to let individuals skip the new security procedures if they had traveled to these countries for journalistic, humanitarian, cultural, or business purposes.    Congress explicitly rejected these exceptions, and they did not appear in the final text of the bill signed into law. It was clear that such broad loopholes would undermine the purpose of the law and make it difficult and costly to implement.    Many of us are also aware that jihadists commonly use excuses like humanitarian assistance to disguise their actual reasons for traveling to a terrorist safe haven. In fact, earlier this week, 7 people were arrested in Spain for supplying arms to ISIS, disguised as humanitarian aid workers.    However, Congress did agree to provide a narrow waiver to allow a Visa Waiver Program traveler to avoid the extra step of visiting a U.S. Embassy if it was, ``in the law enforcement or National security interests of the United States.''    To be clear, this waiver was intended to apply to special circumstances, such as when a foreign traveler is being investigated or monitored. The waiver would ensure that those activities are not disrupted and that a suspect is not tipped off. I believe that the administration clearly understood this. But then Iran weighed in.    In December, the Iranian regime complained to the Obama administration that the law would hurt their economy by deterring European business travelers from visiting. Why? Because doing so would mean they had to go through additional security steps the next time they came to America.    Iran even argued that this was a violation of the nuclear deal. In a rush to appease them, Secretary Kerry wrote a letter declaring that the law could be waived, ``So as not to interfere with legitimate business interests of Iran.''    Let me be clear. Nowhere does the law include this authority. In fact, Congress explicitly rejected the waivers requested by the White House. I joined other Congressional leaders in writing to Secretary Kerry to remind him what the law actually says.    Yet, last month, the administration announced it would be able to exempt several categories of individuals from these requirements. In fact, they claimed that Visa Waiver Program citizens who traveled to terrorist hotspots for humanitarian or journalistic purposes, or to Iran for business purposes, could be exempted from the new security process.    Once again, this law does not include such exemptions. They were proposed by the administration. They were discussed, but they were rejected by Congress. The administration even agreed to the final text and publicly supported the bill.    I cannot overstate how serious I believe this issue is, as a separate, but equal, branch of the Government, the branch of Government that makes the law. The Executive should implement that law according to the will and intent of the Congress.    The President's moving forward with an illegal implementation of the law that he signed only weeks ago, breaching the trust between our 2 branches of Government and potentially putting our Nation's security at risk.    These requirements were imposed for a reason, to ensure individuals who have recently been in terrorist sanctuaries do not pose a threat to our country. The law does not forbid Visa Waiver Program travelers from coming to America. It simply adds an additional layer of security.    But the administration's false reading of the law has Congress and the American people wondering, ``How much further will we bend backwards for Iran?'' We have paid them ransom to release detained Americans. We freed up billions of dollars for their rogue regime. Now, the President is ignoring our own laws so we don't interfere with Iran's economic growth.    Today you will hear our witnesses say these exceptions will only be used on a case-by-case basis. But you are not allowed to break the law on a case-by-case basis. When you are the President, you are not supposed to break it at all, and certainly not for a state sponsor of terror with American blood on its hands.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400402</t>
   </si>
   <si>
-    <t>Bennie G. Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Mr. Chairman, for holding today's hearing.    Commissioner Kerlikowske and Ms. Johnson, thank you, also, for appearing today.    This committee has a long-standing, bipartisan interest in strengthening the Visa Waiver Program. In 2007, with the enactment of legislation I authored the implementation--Implementing Recommendations of the 9/11 Commission Act.    Congress required individualized security checks of travelers participating in a Visa Waiver Program. The program was established to--is known today as Electronic System for Travel Authorization, or ESTA, program.    Under ESTA, citizens are eligible nationals of Visa Waiver Program countries, must obtain an Electronic Travel Authorization prior to boarding a plane in the United States. I have been pleased to see DHS, over the years, take timely action to adjust aspects of the ESTA program, in response to the demands of the ever-changing threat landscape.    Yet, I came into this Congress, like many of my Republican colleagues, seeing the need for more reform to the Visa Waiver Program to bolster its security. That is why I co-sponsored H.R. 158, the Visa Waiver Improvement and Terrorist Travel Prevention Act, authored by Representative Candice Miller, the Chairman of our Border Security subcommittee.    The Fiscal Year 2016 Consolidated Appropriations Act, better known as the Omnibus, included the language from H.R. 158, requiring changes to the Visa Waiver Program. This comprehensive legislation, which was signed into law by the President on December 18, seeks to strengthen passport security requirements, enhance information sharing, and improve fraud detection.    Importantly, it also requires any Visa Waiver country that fails to screen passports against INTERPOL's criminal and terrorism databases, to be terminated from the program. The provision that has garnered the most attention and is the focus of today's hearing, involves the changes in the eligibility for visa-free travel for some travelers from Visa Waiver countries.    Under this new law, most individuals who have visited Iraq, Iran, Syria, and Sudan, in the last 5 years, or who hold dual citizenship with 1 of these 4 countries, would be ineligible for visa-free travel to the United States.    This provision was central to the bipartisan agreement reached between Congress and the White House. During the negotiations, the restriction on dual citizens of Iran, Iraq, Syria, and Sudan, and travel history provisions that the Republicans were advancing, were sticking points.    I was pleased when we were able to reach common ground on a carve-out for certain individuals who traveled to the 4 countries for diplomatic or military service. Reaching agreement for other categories of travelers, including humanitarian aid workers and journalists proved to be elusive.    I appreciate that all involved came together, in the interest of Homeland Security, to strike a compromise that the White House, House Republican leadership, and House Democratic leadership could accept.    In the end, those of us involved in the negotiations understood that enacted would mean that, in most cases, travelers who triggered the citizenship or travel history limitation would have to go through the standard visa application process at a U.S. embassy or consulate.    I was pleased that the law did allow the DHS Secretary to exercise discretion, with respect to these limitations, when doing so was in the law enforcement or National security interests of the United States.    It is important that the Secretary be allowed to exercise discretion, with respect to certain individuals, on a case-by-case basis. Within days of enactment of this law, questions emerged about the implications of the Visa Waiver Program security reforms on the deal that President Obama was able to reach to prevent Iran from becoming a nuclear state.    At the time, I was taken aback, since it was hard to see how this Homeland Security bill had any bearing on the terms of the Iran deal. The issuance of a joint press release by the Departments of Homeland Security and State, on January 21, the day the Visa Waiver Program changes were to begin, did little to squelch those questions about the linkage.    The press release, it was laid out, the administration's plan to exercise its waiver authority, identified 5 categories of travelers who could receive waivers from eligibility limitations set forth in the new law.    One category specifically identified was individuals who travel to Iran for legitimate business purposes after July 14, 2015, the same date the Iran deal was concluded. It will fall to the witnesses today to explain why we should not think that there is a linkage to the Iran deal, when it announces this category in a press release distributed across the globe.    As someone who supported the granting of waiver authority to the Secretary of Homeland Security, I have questions about the approach and the tack that the administration has taken today.    While Secretary Johnson may plan to consider, on a case-by-case basis, whether to allow visa-free travel for National security purposes, the decision to list categories of travelers that can bypass visa screening at our embassies and consulate was a questionable one.    The administration needs to be prepared to answer questions about its decision to create categories for waivers, including the degree to which intelligence informs the parameters. Additionally, the administration needs to explain why it decided to publish the categories, thereby creating an expectation for people who fall into these categories that they will be able to continue to travel, visa-free, to the United States.    We need to understand, particularly, at a time when we know that there are some crafty, would-be terrorists eager to find new ways to work around security enhancements in the Visa Waiver Program, why the administration has chosen to be so public about how the DHS Secretary may exercise this discretion.    In reviewing the categories, I have some questions about how the DHS Secretary will go about determining the legitimacy of the business-related purposes for travel to Iran. I look forward to hearing testimony from the witnesses about how many travelers might be eligible for the waivers identified in the joint press release and what kind of resources CBP will need to put processes in place to fully adjudicate the anticipated flurry of waiver requests from travelers in these categories.    I think, Mr. Chairman, you see a lot of us have questions.</t>
   </si>
   <si>
@@ -82,18 +76,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Kerlikowske</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kerlikowske. Chairman McCaul, Ranking Member Thompson, distinguished Members of the committee, I returned on Sunday morning from California, where CBP had an integral role in safeguarding the Super Bowl. I witnessed the numerous aspects of CBP's broad and complex mission all in one place, providing security and surveillance on the ground and from the air, screening cargo and deliveries for weapons and other dangerous items.    CBP has a critical role in securing international travel against the threat of terrorists and their supporters, while facilitating lawful travel and tourism. Every day, we process 1 million travelers.    As you know, before boarding a U.S.-bound flight, most foreign nationals must obtain a non-immigrant visa, issued by a United States embassy or consulate, or the traveler must apply for travel authorization through CBP's ESTA program.    Through ESTA, CBP conducts enhanced vetting of these applicants, in order to assess whether they are eligible to travel and whether they pose a potential risk to the American people. Over the last 15 months, we have worked with the DHS, under Secretary Johnson's leadership, to strengthen the security of the program, through enhancements to ESTA, in order to identify those who may pose a threat to the United States.    We have introduced additional data fields that have increased the ability of CBP and the National Counterterrorism Center to identify applicants with potential connections to terrorism. In addition to these enhancements, this past August, DHS further announced security measures for Visa Waiver Program countries, including increased traveler data collection, analysis, and reporting, the requirement that INTERPOL's lost and stolen travel document database be used, and the required use of electronic passports, which contain additional security features.    On December 18, the President signed into law the Consolidated Appropriations Act of 2016, which includes the Visa Waiver Program Improvement and Terrorist Travel Prevention Act of 2015, with some exceptions for official military and Government law.    The law prohibits VWP travel for individuals who have been present, at any time, on or after March 1, 2011, in Iraq, Syria, or countries designated as state sponsors of terrorism, which currently includes Iran and Sudan. It also prohibits VWP travel for the individuals who are dual nationals, as of one of these countries and a VWP country.    Well, we began implementing some of the changes required by the new law very quickly. We have already revoked or cancelled 17,000 ESTA travel authorizations. We have established, in conjunction with our interagency partners, a terrorist travel prevention cell at our National targeting center.    The cell will enhance the Department's efforts to identify and prevent foreign terrorist fighter travel. A subset of that cell's mission will be to scrutinize individual waiver requests on a case-by-case basis that is permitted under the new law.    Additionally, CBP will add new fields to the ESTA application by the end of the month, and we will ask additional questions to further improve our ability to vet individual travelers and make decisions about their eligibility, in accordance with the recent changes.    Well, as terrorists change their methods and tactics, and DHS is going to continue to work with our Federal and international partners to counter foreign fighter threats to the homeland.    We will continue to strengthen our travel security programs and systems, enhance our capabilities to secure international air travel against terrorists and others who threaten the safety of the traveling public and the security of our Nation.    Chairman McCaul, Ranking Member Thompson, and Members of the committee, thank you for the opportunity to testify today. I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman McCaul. Thank you, Commissioner. We appreciate your service.    The Chair recognizes Ms. Johnson for her testimony.</t>
   </si>
   <si>
-    <t>Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Good morning Chairman McCaul, Ranking Member Thompson, and distinguished Members of the committee.    Thank you for this opportunity to testify today on implementation of the Visa Waiver Program Improvement and Terrorist Travel Prevention Act of 2015. It is a pleasure to be here today with Commissioner Kerlikowske.    My written statement, which I request be put into the record, describes how the Department of State has worked closely with the Department of Homeland Security to implement this new law, while ensuring our top priority remains the protection of the U.S. homeland.    As deputy coordinator for homeland security and State's counterterrorism bureau, security of the homeland and the safety of our citizens is my--citizens is my constant focus. I welcome this legislation to strengthen the Visa Waiver Program.    The VWP is a key counterterrorism tool that helps protect our homeland every single day. Our VWP partners must uphold strict security standards, such as sharing information on known and suspected terrorists and criminals, and reporting lost and stolen passports to INTERPOL.    We use VWP benefits to encourage greater information sharing and more systemic screening by our allies. VWP requirements give our partners the impetus to tighten security in ways that can be politically challenging for them.    The U.S. Government assesses each VWP country's compliance at least once every 2 years, inspecting airports, sea ports, land borders, and passport production and issuance facilities. No other program enables the U.S. Government to conduct such broad and consequential assessments of foreign partners' security operations.    I would also like to underscore that the VWP is not a free pass to travel to the United States. All travelers coming to the United States undergo checks for ties to terrorism and are subject to multiple layers of security, regardless of whether they have a visa, or they come in under the VWP.    As the commissioner has noted, citizens of VWP countries apply to enter the United States via the ESTA. CBP checks ESTA forms against U.S. terrorist and criminal databases before travelers are allowed to use the VWP.    This information that our partners provide, under the information sharing, as part of the VWP, is a vital component of our terrorist and criminal databases. The layer of security continues beyond this step. All travelers are screened by CBP's National Targeting Center before they board an airplane and after they are admitted into the United States.    ESTAs are continuously reviewed and revoked immediately if new intelligence comes to light. Watchlisting, screening, and information intelligence gathering are some of the best tools for countering the threat of foreign terrorist travel.    These tools are most effective when we are working in collaboration with our VWP partners. That is why the VWP is such an important counterterrorism partnership. The 38 countries that are part of the VWP include many of our closest allies, and they are proud of their status. VWP membership is so prized that many countries not in the VWP complete program requirements in the hope of joining.    I would like to speak to the National security waivers authorized under the law. Under the new law, the Secretary of Homeland Security has the authority to waive restrictions, if he determines that such a waiver is in the National security or law enforcement interest of the United States.    We understand that Congress did not want to create blanket exemptions to the law, and that is why these waivers will be implemented on a case-by-case basis. After consulting with the Secretary of State, the Secretary of Homeland Security has determined that is the general matter, it is in the National security interests of the United States to administer waivers on a case-by-case basis and for certain types of ESTA applicants.    I want to stress that these are not blanket waivers. Again, the waivers would be administered on a case-by-case basis and are narrowly tailored to specific National security interests. We publicly outlined categories in which a waiver might apply to provide guidance to citizens of VWP countries.    There is lot of confusion about this law among some of our closest allies, and we needed to let them know which of their citizens might receive a waiver and how the process would work. We noted in our guidance that each ESTA applicant would be considered on a case-by-case basis and reviewed carefully.    In no incidence is travel under the VWP guaranteed for a person in one of the identified categories. I would like to share some examples of why we think these narrowly-tailored waivers are in our National security interest.    For instance, we rely on employees of the International Atomic Energy Agency for the technical expertise to fight the spread of nuclear weapons around the world. Yet, without a waiver, IAEA employees, who went to Iran to pursue our National security objective of preventing Iran from obtaining a nuclear weapon, would be considered security risks.    Without waivers, UNHCR and World Food Program staff, who do critical work helping refugees in Iraq or feeding starving children in Darfur, Sudan, would be unable to travel to the United States under the VWP.    The European Union is an essential partner to us around the world. Without a waiver, representatives of E.U. institutions, including E.U. parliamentarians, would be ineligible to travel to the United States under the VWP.    Additionally, we work closely with officials of the E.U. Counterterrorism Coordinator's office, who travel frequently to Iraq. Without waivers, they would be denied ESTAs. These waivers will allow us to maintain and build our relationships, in cooperation with these institutions, toward shared counterterrorism goals.    Business representatives or NGO employees, who have traveled to Iraq to help with schools, roads, and hospitals, also would be denied travel under VWP, even though they are doing work we have encouraged to help stabilize and rebuild that country's economy.    In Syria, the world relies on journalists facing grave danger to report on human rights violations, allegations of chemical weapon use, and the brutality of that on-going conflict that we might otherwise never know about. Yet, without waivers, they, too, could be denied VWP travel.    I recognize that participating in the VWP is a privilege and not a right, but denying VWP participation to citizens of member countries, who are doing work we promote and support, is counter to our National security interests.    I want to stress, again, that every VWP travel considered for a waiver will be closely examined to see if they meet the stringent requirements to travel under the VWP. A case-by-case application of waivers in these narrow instances, allows us to advance our National security interests and directs our resources to higher-risk threats.    As I have discussed, we believe there are significant National security interests for the United States to utilize this waiver, and we do so without compromising the safety of our fellow citizens at home and overseas and the security of the traveling public.    Mr. Chairman, Mr. Ranking Member Thompson, and distinguished Members of the committee, thank you so very much for having me here today. I look forward to your questions.</t>
   </si>
   <si>
@@ -253,9 +241,6 @@
     <t xml:space="preserve">    Chairman McCaul. Chair now recognizes the author of the Visa Waiver Program bill, Mrs. Miller.</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Miller. Thank you, Mr. Chairman. I certainly appreciate you holding this hearing today. This is an important issue, and I appreciate the witnesses being here.    Ms. Johnson, as the Chairman mentioned, you are a career diplomat, not really a political type. I think we would have preferred someone--because it seems to me to be a political determination made by this administration.    You mentioned, in your testimony, there, you were mentioning various people, people or groups, that would be inconvenienced by this bill. But, again, as the Chairman mentioned, these issues were not either raised, or they were negotiated away during the negotiations. He did put up some of these slides. I won't ask the staff to do that again.    But I will just mention these, because I think it does bear note, here, because we were negotiating, we, being the Congress, were negotiating in very good faith with the White House and the various agencies included.    Here is a--and this particular issue, by the way, somebody mentioned and it sort of went quickly because it went in the omni, but the reality is, really, we had introduced this legislation a couple of years ago and then, again, reintroduced it during this Congress.    It went through--we had a number of hearings. Mr. Commissioner, you have been--you had the opportunity to testify before our subcommittee, as well as the full committee, as well, on numerous occasions.    So this is an issue that went through regular order, through our subcommittee, through our full committee. We were--there were many, on both sides of the aisle, who were very desirous of having floor action on this. We were, you know, really--then came Paris. So, we had this bill ready to go, and that is really how it ended up in the omni, there, at the end.    But at one time we were--these emails showing--I was just going to briefly say, proposed exemptions for journalists, relief workers, business and humanitarian travel, they accept only exemptions for government officials and military personal. Okay. Everybody agreed to that, when we were negotiating this just 3 months ago.    Here is another email. Negotiations continue, bipartisan House committee leadership staff--bipartisan. The White House, the Department of Homeland Security, State Department, the exemption for humanitarian travel are, once again, rejected by everybody. Rejected. Here is the email that was up on the screen. The administration supports this legislation, thanks to all.    Then here is another one. I am not going to say who sent all these, but here, ``I have spoken to State. They do not request any additional edits. The administration does not request any changes at this time.''    So I just point those out, because it is certainly clear, I believe, abundantly clear, that the White House negotiated in very bad faith. Again, it is not a partisan issue. It is a very bipartisan issue, and I don't know how Congress can come to an agreement with the White House, with an administration that simply turns around and then breaks the agreement, certainly violates the law, in my estimation, as well.    So, I guess, my question, Ms. Johnson, you know, to be very clear of the changes of the law, they don't bar people who have traveled to either Iran, Iraq, Syria, or Sudan from entering the country. They just simply have to go through the same processes that countries in 100--people from 150 other countries have to use, when they come into the country.    I would say, Ms. Johnson, do you think, from the Department of State, do you think that the visa interview is an unreasonable bar for an individual who actually has visited a country that is a state sponsor of terrorism?</t>
   </si>
   <si>
@@ -271,9 +256,6 @@
     <t>412506</t>
   </si>
   <si>
-    <t>Donald M. Payne, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you, Mr. Chairman and Ranking Member.    Commissioner, while the recent VWP legislation prohibits individuals with recent travel to citizenship in Iraq, Iran, Sudan, or Syria from traveling to the United States under the program, it authorizes the Secretary of Homeland Security to issue the waiver, if in doing so in the law enforcement or National security interests of the United States.    What circumstances would warrant a waiver? What process will be used to determine whether a traveler would be issued a waiver? What role will CBP play in that process?</t>
   </si>
   <si>
@@ -301,9 +283,6 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman.    Mr. Commissioner, could you define, as in the law, what law enforcement and National security interests of the United States are?</t>
   </si>
   <si>
@@ -385,9 +364,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me thank the Chairman and the Ranking Member. This is an important hearing. But let me also thank the witnesses. I come with a, sort-of, a dual approach in my questions, respecting both of you.    Commissioner, thank you for your service.    Thank you, Ms. Johnson.    I am going to join the Chairman and wish that we had a person in the level of Secretary, assistant secretary. When I say that, no disregard to your expertise, and to thank you for your presence here today.    As I said, when I say dual purpose, I am going to be a little bit askance. Let me ask the commissioner, Mr. Commissioner, are you--do you have an intent to break the law?</t>
   </si>
   <si>
@@ -451,9 +427,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman.    Ms. Johnson, maybe you can help me clarify something. You said you are not a lawyer. I am not a lawyer. But something you had said earlier, maybe you can help me clarify. There appears to be two exceptions that we are talking about to this law.    One was in response to Mr. Thompson in his questioning. He brought up waivers, and you said that these are not waivers, they are exceptions--or exemptions. Is that correct?</t>
   </si>
   <si>
@@ -505,9 +478,6 @@
     <t>412432</t>
   </si>
   <si>
-    <t>Cedric L. Richmond</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Richmond. Mr. Chairman.    I guess I will pick up where my colleague just left off, in trying to determine the exemptions which, my understanding, would be outright exemptions of categories of people, and then waivers, as you all define as on a case-by-case basis and the Secretary has the authority to do that.    My colleague quoted John Conyers, who I certainly respect and made him an authority, but John Conyers is also asking for us to vote on voting rights. I don't hear anyone quoting him or moving to do that.    What it sounds like to me is that you all were asking for the blanket exemption for those categories, and, when you didn't get it, some lawyer in your office said, well, it is not a big deal, because you can do it by waivers on a case-by-case basis.    Is that probably fair, that someone came to you and said that you could do exactly what you want to do by waiver, as opposed to, I guess, continuing to negotiate an exemption?</t>
   </si>
   <si>
@@ -559,9 +529,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman.    Ms. Johnson, I, based on your testimony earlier, I know that you played a role, with respect to the negotiation of text, for H.R. 158. Because of that, I know that you were aware that these special categories of exemptions, travel for humanitarian purposes, for business purposes, and for journalistic purposes, were requested by the State Department and were rejected by Congressional negotiators, as reflected in the emails that Chairman McCaul put on the screen earlier. Correct?</t>
   </si>
   <si>
@@ -628,9 +595,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman. Mr. Chairman, let me preface my remarks, my questions, Mr. Chairman, by just saying that, while I am very respectful of the Commissioner and Ms. Johnson being here and appreciate them being here, very much, they are, Mr. Chairman, in my opinion, they are just overseers and implementers of this.    We need the people here, testifying before us, who have actually had the responsibility of doing this. That is the White House, the Secretary of State, the Secretary of Homeland Security.    So, Mr. Chairman, I hope that we can work toward getting them here to answer these questions, again, respectfully, to the witnesses who are here today.    Having said that, Mr. Chairman, Ms. Johnson, respectfully, I remind you, you are under oath. Whose decision was it? Whose decision was it to ignore the intent and the plain language of the law? Whose decision was that? To create these 5 categories of exemptions, whose decision was it?</t>
   </si>
   <si>
@@ -709,9 +673,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    Ms. Johnson, I want to go back to something you said a little earlier. I think you were touching on it just a few minutes ago, in responding to my colleague from Georgia, Mr. Carter, about this Iranian's--if you used the word are offended by the travel bans, or it is a problem there. I don't understand why that is an overwhelming concern of ours, that is offensive to them. Can you expound on that make and make sure I heard that correctly, or is that----</t>
   </si>
   <si>
@@ -743,9 +704,6 @@
   </si>
   <si>
     <t>412649</t>
-  </si>
-  <si>
-    <t>John Katko</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Chairman.</t>
@@ -1234,11 +1192,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1260,11 +1216,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1284,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1312,11 +1264,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1336,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1364,11 +1312,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1388,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1416,11 +1360,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1440,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1468,11 +1408,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1492,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1520,11 +1456,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1544,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1572,11 +1504,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1596,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1624,11 +1552,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1648,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1676,11 +1600,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1700,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1728,11 +1648,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1752,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1780,11 +1696,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1804,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1832,11 +1744,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1856,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1882,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1908,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1934,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1960,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1986,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2012,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2038,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2064,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2090,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2116,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2142,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2168,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2194,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2220,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2246,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2272,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2298,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2324,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2350,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2376,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2402,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2428,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2454,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2480,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2506,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2532,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2558,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2584,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2610,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2636,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2662,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2688,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2714,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2740,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2766,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2792,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2820,11 +2656,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2844,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>79</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2870,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2896,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>79</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2924,11 +2752,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2948,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2974,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3000,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3026,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3052,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>84</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3078,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3104,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
-      </c>
-      <c r="G74" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3132,11 +2944,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3156,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
-      </c>
-      <c r="G76" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3182,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3208,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
-      </c>
-      <c r="G78" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3234,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3260,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3286,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3312,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
-      </c>
-      <c r="G82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>95</v>
-      </c>
-      <c r="H82" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3338,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3364,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3390,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3416,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3444,11 +3232,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3468,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3494,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3520,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
-      </c>
-      <c r="G90" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3546,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3572,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>94</v>
-      </c>
-      <c r="G92" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3600,11 +3376,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3624,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>94</v>
-      </c>
-      <c r="G94" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3650,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3676,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>94</v>
-      </c>
-      <c r="G96" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3702,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3728,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>94</v>
-      </c>
-      <c r="G98" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3754,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3780,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>94</v>
-      </c>
-      <c r="G100" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3808,11 +3568,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3832,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
-      </c>
-      <c r="G102" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3858,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3884,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3910,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3936,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
-      </c>
-      <c r="G106" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3962,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3988,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
+        <v>115</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>122</v>
-      </c>
-      <c r="G108" t="s">
-        <v>123</v>
-      </c>
-      <c r="H108" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4014,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4040,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
-      </c>
-      <c r="G110" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4066,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4092,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
-      </c>
-      <c r="G112" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4118,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4144,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
-      </c>
-      <c r="G114" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4170,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4196,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>122</v>
-      </c>
-      <c r="G116" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4222,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4248,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>122</v>
-      </c>
-      <c r="G118" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4274,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4300,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>122</v>
-      </c>
-      <c r="G120" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4326,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4352,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>122</v>
-      </c>
-      <c r="G122" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4380,11 +4096,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4404,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>144</v>
-      </c>
-      <c r="G124" t="s">
-        <v>145</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4430,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4456,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>144</v>
-      </c>
-      <c r="G126" t="s">
-        <v>145</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4482,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4508,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>144</v>
-      </c>
-      <c r="G128" t="s">
-        <v>145</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4534,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4560,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>144</v>
-      </c>
-      <c r="G130" t="s">
-        <v>145</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4586,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4612,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>144</v>
-      </c>
-      <c r="G132" t="s">
+        <v>136</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
         <v>145</v>
-      </c>
-      <c r="H132" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4638,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4664,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>144</v>
-      </c>
-      <c r="G134" t="s">
-        <v>145</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4690,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4716,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>144</v>
-      </c>
-      <c r="G136" t="s">
-        <v>145</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4742,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4768,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>144</v>
-      </c>
-      <c r="G138" t="s">
-        <v>145</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4796,11 +4480,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4820,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>162</v>
-      </c>
-      <c r="G140" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4846,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4872,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>162</v>
-      </c>
-      <c r="G142" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4898,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4924,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>162</v>
-      </c>
-      <c r="G144" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4950,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4976,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>162</v>
-      </c>
-      <c r="G146" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5002,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5028,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
+        <v>153</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
         <v>162</v>
-      </c>
-      <c r="G148" t="s">
-        <v>163</v>
-      </c>
-      <c r="H148" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5054,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5080,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>162</v>
-      </c>
-      <c r="G150" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5106,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5132,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>162</v>
-      </c>
-      <c r="G152" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5158,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5184,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>162</v>
-      </c>
-      <c r="G154" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5212,11 +4864,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5236,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>180</v>
-      </c>
-      <c r="G156" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5262,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5288,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>180</v>
-      </c>
-      <c r="G158" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5314,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5340,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>180</v>
-      </c>
-      <c r="G160" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5366,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5392,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>180</v>
-      </c>
-      <c r="G162" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5418,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5444,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>180</v>
-      </c>
-      <c r="G164" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5470,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5496,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>180</v>
-      </c>
-      <c r="G166" t="s">
+        <v>170</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
         <v>181</v>
-      </c>
-      <c r="H166" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5522,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5548,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>180</v>
-      </c>
-      <c r="G168" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5574,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5600,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>180</v>
-      </c>
-      <c r="G170" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5626,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5652,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>180</v>
-      </c>
-      <c r="G172" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5678,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5704,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>180</v>
-      </c>
-      <c r="G174" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5730,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5756,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>180</v>
-      </c>
-      <c r="G176" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5782,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5808,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>180</v>
-      </c>
-      <c r="G178" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5836,11 +5440,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5860,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>203</v>
-      </c>
-      <c r="G180" t="s">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5886,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5912,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>203</v>
-      </c>
-      <c r="G182" t="s">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5938,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5964,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>203</v>
-      </c>
-      <c r="G184" t="s">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5990,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6016,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>203</v>
-      </c>
-      <c r="G186" t="s">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6042,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6068,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>203</v>
-      </c>
-      <c r="G188" t="s">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6094,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6120,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
+        <v>192</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
         <v>203</v>
-      </c>
-      <c r="G190" t="s">
-        <v>204</v>
-      </c>
-      <c r="H190" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6146,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6172,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>203</v>
-      </c>
-      <c r="G192" t="s">
+        <v>192</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
         <v>204</v>
-      </c>
-      <c r="H192" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6198,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6224,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>203</v>
-      </c>
-      <c r="G194" t="s">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6250,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6276,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>203</v>
-      </c>
-      <c r="G196" t="s">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6302,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
-      </c>
-      <c r="G197" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6328,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>203</v>
-      </c>
-      <c r="G198" t="s">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6354,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>21</v>
-      </c>
-      <c r="G199" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6380,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>203</v>
-      </c>
-      <c r="G200" t="s">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6406,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>21</v>
-      </c>
-      <c r="G201" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6432,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>203</v>
-      </c>
-      <c r="G202" t="s">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6458,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>21</v>
-      </c>
-      <c r="G203" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6484,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>203</v>
-      </c>
-      <c r="G204" t="s">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6512,11 +6064,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6536,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>230</v>
-      </c>
-      <c r="G206" t="s">
-        <v>231</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6562,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>21</v>
-      </c>
-      <c r="G207" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6588,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>230</v>
-      </c>
-      <c r="G208" t="s">
-        <v>231</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6614,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>21</v>
-      </c>
-      <c r="G209" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6640,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>230</v>
-      </c>
-      <c r="G210" t="s">
-        <v>231</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6666,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>21</v>
-      </c>
-      <c r="G211" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6692,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>230</v>
-      </c>
-      <c r="G212" t="s">
-        <v>231</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6718,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>21</v>
-      </c>
-      <c r="G213" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6744,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>230</v>
-      </c>
-      <c r="G214" t="s">
-        <v>231</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6772,11 +6304,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6796,13 +6326,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>242</v>
-      </c>
-      <c r="G216" t="s">
-        <v>243</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6824,11 +6352,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6848,13 +6374,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>242</v>
-      </c>
-      <c r="G218" t="s">
-        <v>243</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6874,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>21</v>
-      </c>
-      <c r="G219" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6900,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>21</v>
-      </c>
-      <c r="G220" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6926,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>242</v>
-      </c>
-      <c r="G221" t="s">
-        <v>243</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6952,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>21</v>
-      </c>
-      <c r="G222" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6978,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>21</v>
-      </c>
-      <c r="G223" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7004,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>242</v>
-      </c>
-      <c r="G224" t="s">
-        <v>243</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7030,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>21</v>
-      </c>
-      <c r="G225" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7056,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>242</v>
-      </c>
-      <c r="G226" t="s">
-        <v>243</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7082,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>21</v>
-      </c>
-      <c r="G227" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7108,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>242</v>
-      </c>
-      <c r="G228" t="s">
-        <v>243</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7134,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>21</v>
-      </c>
-      <c r="G229" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7160,13 +6662,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>242</v>
-      </c>
-      <c r="G230" t="s">
+        <v>229</v>
+      </c>
+      <c r="G230" t="s"/>
+      <c r="H230" t="s">
         <v>243</v>
-      </c>
-      <c r="H230" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7186,13 +6686,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>21</v>
-      </c>
-      <c r="G231" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7212,13 +6710,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>242</v>
-      </c>
-      <c r="G232" t="s">
-        <v>243</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7238,13 +6734,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>21</v>
-      </c>
-      <c r="G233" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7264,13 +6758,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>242</v>
-      </c>
-      <c r="G234" t="s">
-        <v>243</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7290,13 +6782,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>21</v>
-      </c>
-      <c r="G235" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7316,13 +6806,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>242</v>
-      </c>
-      <c r="G236" t="s">
-        <v>243</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7342,13 +6830,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>21</v>
-      </c>
-      <c r="G237" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7368,13 +6854,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>242</v>
-      </c>
-      <c r="G238" t="s">
-        <v>243</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7394,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>21</v>
-      </c>
-      <c r="G239" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7420,13 +6902,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>242</v>
-      </c>
-      <c r="G240" t="s">
-        <v>243</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7448,11 +6928,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7472,13 +6950,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>21</v>
-      </c>
-      <c r="G242" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7500,11 +6976,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7524,13 +6998,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>21</v>
-      </c>
-      <c r="G244" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7552,11 +7024,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7576,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>21</v>
-      </c>
-      <c r="G246" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7604,11 +7072,9 @@
       <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
-        <v>12</v>
-      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21523.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21523.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400654</t>
   </si>
   <si>
+    <t>McCaul</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman McCaul. The Committee on Homeland Security will come to order. The committee is meeting today to examine the administration's flawed implementation of the Visa Waiver Program Improvement and Terrorist Travel Prevention Act. I now recognize myself for an opening statement.    We are holding this hearing today because Congress is confronted with a dilemma, which has grave implications for our National security and for our democratic process. In December, the President signed important measures into law to improve counterterrorism screening of foreign travelers coming into the United States.    These enhancements were urgently needed in the wake of the Paris attacks and in light of the high terror threat environment. But now the President has decided that he is going to break this law.    He plans to do so, in part, to accommodate the world's leading state sponsor of terror, Iran. I believe this decision could have serious consequences for our security and, perhaps, more importantly, far-reaching consequences for our democracy.    This legislation at issue is H.R. 158, the Visa Waiver Program Improvement and Terrorist Travel Prevention Act of 2015. It was authorized by this committee's Vice Chair, Mrs. Miller, and it implements several major recommendations from the committee's bipartisan Task Force on Combating Terrorist and Foreign Fighter Travel.    The bill passed the House overwhelmingly, 407-19, and it was included in the year-end spending bill signed by the President. This was one of the most significant pieces of security legislation Congress considered last year.    It tightens security checks overseas and makes it harder for terrorists to exploit the Visa Waiver Program to get into the United States. The threat is real. For instance, more than 6,000 Westerners have gone to fight in Syria and Iraq, and many of them are from Visa Waiver Program countries.    This means, they can enter the United States more quickly and easily than other travelers. Nearly 2,000 of these individuals have already come back from the battlefield. Accordingly, the new law sends a clear message to Visa Waiver Program citizens. If you have recently visited Syria, Iraq, Iran, or Sudan, you must go through additional screening before coming to the United States.    The law requires these individuals to get a regular visa, which includes an in-person interview and the submission of their fingerprints. Congress included specific exceptions, including allowing individuals to still travel visa-free to America, if their reason for being in a terrorist hotspot was for military service or official Government business.    But during bipartisan negotiations over the bill, the administration asked for other exceptions. They wanted to let individuals skip the new security procedures if they had traveled to these countries for journalistic, humanitarian, cultural, or business purposes.    Congress explicitly rejected these exceptions, and they did not appear in the final text of the bill signed into law. It was clear that such broad loopholes would undermine the purpose of the law and make it difficult and costly to implement.    Many of us are also aware that jihadists commonly use excuses like humanitarian assistance to disguise their actual reasons for traveling to a terrorist safe haven. In fact, earlier this week, 7 people were arrested in Spain for supplying arms to ISIS, disguised as humanitarian aid workers.    However, Congress did agree to provide a narrow waiver to allow a Visa Waiver Program traveler to avoid the extra step of visiting a U.S. Embassy if it was, ``in the law enforcement or National security interests of the United States.''    To be clear, this waiver was intended to apply to special circumstances, such as when a foreign traveler is being investigated or monitored. The waiver would ensure that those activities are not disrupted and that a suspect is not tipped off. I believe that the administration clearly understood this. But then Iran weighed in.    In December, the Iranian regime complained to the Obama administration that the law would hurt their economy by deterring European business travelers from visiting. Why? Because doing so would mean they had to go through additional security steps the next time they came to America.    Iran even argued that this was a violation of the nuclear deal. In a rush to appease them, Secretary Kerry wrote a letter declaring that the law could be waived, ``So as not to interfere with legitimate business interests of Iran.''    Let me be clear. Nowhere does the law include this authority. In fact, Congress explicitly rejected the waivers requested by the White House. I joined other Congressional leaders in writing to Secretary Kerry to remind him what the law actually says.    Yet, last month, the administration announced it would be able to exempt several categories of individuals from these requirements. In fact, they claimed that Visa Waiver Program citizens who traveled to terrorist hotspots for humanitarian or journalistic purposes, or to Iran for business purposes, could be exempted from the new security process.    Once again, this law does not include such exemptions. They were proposed by the administration. They were discussed, but they were rejected by Congress. The administration even agreed to the final text and publicly supported the bill.    I cannot overstate how serious I believe this issue is, as a separate, but equal, branch of the Government, the branch of Government that makes the law. The Executive should implement that law according to the will and intent of the Congress.    The President's moving forward with an illegal implementation of the law that he signed only weeks ago, breaching the trust between our 2 branches of Government and potentially putting our Nation's security at risk.    These requirements were imposed for a reason, to ensure individuals who have recently been in terrorist sanctuaries do not pose a threat to our country. The law does not forbid Visa Waiver Program travelers from coming to America. It simply adds an additional layer of security.    But the administration's false reading of the law has Congress and the American people wondering, ``How much further will we bend backwards for Iran?'' We have paid them ransom to release detained Americans. We freed up billions of dollars for their rogue regime. Now, the President is ignoring our own laws so we don't interfere with Iran's economic growth.    Today you will hear our witnesses say these exceptions will only be used on a case-by-case basis. But you are not allowed to break the law on a case-by-case basis. When you are the President, you are not supposed to break it at all, and certainly not for a state sponsor of terror with American blood on its hands.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Bennie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Mr. Chairman, for holding today's hearing.    Commissioner Kerlikowske and Ms. Johnson, thank you, also, for appearing today.    This committee has a long-standing, bipartisan interest in strengthening the Visa Waiver Program. In 2007, with the enactment of legislation I authored the implementation--Implementing Recommendations of the 9/11 Commission Act.    Congress required individualized security checks of travelers participating in a Visa Waiver Program. The program was established to--is known today as Electronic System for Travel Authorization, or ESTA, program.    Under ESTA, citizens are eligible nationals of Visa Waiver Program countries, must obtain an Electronic Travel Authorization prior to boarding a plane in the United States. I have been pleased to see DHS, over the years, take timely action to adjust aspects of the ESTA program, in response to the demands of the ever-changing threat landscape.    Yet, I came into this Congress, like many of my Republican colleagues, seeing the need for more reform to the Visa Waiver Program to bolster its security. That is why I co-sponsored H.R. 158, the Visa Waiver Improvement and Terrorist Travel Prevention Act, authored by Representative Candice Miller, the Chairman of our Border Security subcommittee.    The Fiscal Year 2016 Consolidated Appropriations Act, better known as the Omnibus, included the language from H.R. 158, requiring changes to the Visa Waiver Program. This comprehensive legislation, which was signed into law by the President on December 18, seeks to strengthen passport security requirements, enhance information sharing, and improve fraud detection.    Importantly, it also requires any Visa Waiver country that fails to screen passports against INTERPOL's criminal and terrorism databases, to be terminated from the program. The provision that has garnered the most attention and is the focus of today's hearing, involves the changes in the eligibility for visa-free travel for some travelers from Visa Waiver countries.    Under this new law, most individuals who have visited Iraq, Iran, Syria, and Sudan, in the last 5 years, or who hold dual citizenship with 1 of these 4 countries, would be ineligible for visa-free travel to the United States.    This provision was central to the bipartisan agreement reached between Congress and the White House. During the negotiations, the restriction on dual citizens of Iran, Iraq, Syria, and Sudan, and travel history provisions that the Republicans were advancing, were sticking points.    I was pleased when we were able to reach common ground on a carve-out for certain individuals who traveled to the 4 countries for diplomatic or military service. Reaching agreement for other categories of travelers, including humanitarian aid workers and journalists proved to be elusive.    I appreciate that all involved came together, in the interest of Homeland Security, to strike a compromise that the White House, House Republican leadership, and House Democratic leadership could accept.    In the end, those of us involved in the negotiations understood that enacted would mean that, in most cases, travelers who triggered the citizenship or travel history limitation would have to go through the standard visa application process at a U.S. embassy or consulate.    I was pleased that the law did allow the DHS Secretary to exercise discretion, with respect to these limitations, when doing so was in the law enforcement or National security interests of the United States.    It is important that the Secretary be allowed to exercise discretion, with respect to certain individuals, on a case-by-case basis. Within days of enactment of this law, questions emerged about the implications of the Visa Waiver Program security reforms on the deal that President Obama was able to reach to prevent Iran from becoming a nuclear state.    At the time, I was taken aback, since it was hard to see how this Homeland Security bill had any bearing on the terms of the Iran deal. The issuance of a joint press release by the Departments of Homeland Security and State, on January 21, the day the Visa Waiver Program changes were to begin, did little to squelch those questions about the linkage.    The press release, it was laid out, the administration's plan to exercise its waiver authority, identified 5 categories of travelers who could receive waivers from eligibility limitations set forth in the new law.    One category specifically identified was individuals who travel to Iran for legitimate business purposes after July 14, 2015, the same date the Iran deal was concluded. It will fall to the witnesses today to explain why we should not think that there is a linkage to the Iran deal, when it announces this category in a press release distributed across the globe.    As someone who supported the granting of waiver authority to the Secretary of Homeland Security, I have questions about the approach and the tack that the administration has taken today.    While Secretary Johnson may plan to consider, on a case-by-case basis, whether to allow visa-free travel for National security purposes, the decision to list categories of travelers that can bypass visa screening at our embassies and consulate was a questionable one.    The administration needs to be prepared to answer questions about its decision to create categories for waivers, including the degree to which intelligence informs the parameters. Additionally, the administration needs to explain why it decided to publish the categories, thereby creating an expectation for people who fall into these categories that they will be able to continue to travel, visa-free, to the United States.    We need to understand, particularly, at a time when we know that there are some crafty, would-be terrorists eager to find new ways to work around security enhancements in the Visa Waiver Program, why the administration has chosen to be so public about how the DHS Secretary may exercise this discretion.    In reviewing the categories, I have some questions about how the DHS Secretary will go about determining the legitimacy of the business-related purposes for travel to Iran. I look forward to hearing testimony from the witnesses about how many travelers might be eligible for the waivers identified in the joint press release and what kind of resources CBP will need to put processes in place to fully adjudicate the anticipated flurry of waiver requests from travelers in these categories.    I think, Mr. Chairman, you see a lot of us have questions.</t>
   </si>
   <si>
@@ -76,12 +91,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Kerlikowske</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kerlikowske. Chairman McCaul, Ranking Member Thompson, distinguished Members of the committee, I returned on Sunday morning from California, where CBP had an integral role in safeguarding the Super Bowl. I witnessed the numerous aspects of CBP's broad and complex mission all in one place, providing security and surveillance on the ground and from the air, screening cargo and deliveries for weapons and other dangerous items.    CBP has a critical role in securing international travel against the threat of terrorists and their supporters, while facilitating lawful travel and tourism. Every day, we process 1 million travelers.    As you know, before boarding a U.S.-bound flight, most foreign nationals must obtain a non-immigrant visa, issued by a United States embassy or consulate, or the traveler must apply for travel authorization through CBP's ESTA program.    Through ESTA, CBP conducts enhanced vetting of these applicants, in order to assess whether they are eligible to travel and whether they pose a potential risk to the American people. Over the last 15 months, we have worked with the DHS, under Secretary Johnson's leadership, to strengthen the security of the program, through enhancements to ESTA, in order to identify those who may pose a threat to the United States.    We have introduced additional data fields that have increased the ability of CBP and the National Counterterrorism Center to identify applicants with potential connections to terrorism. In addition to these enhancements, this past August, DHS further announced security measures for Visa Waiver Program countries, including increased traveler data collection, analysis, and reporting, the requirement that INTERPOL's lost and stolen travel document database be used, and the required use of electronic passports, which contain additional security features.    On December 18, the President signed into law the Consolidated Appropriations Act of 2016, which includes the Visa Waiver Program Improvement and Terrorist Travel Prevention Act of 2015, with some exceptions for official military and Government law.    The law prohibits VWP travel for individuals who have been present, at any time, on or after March 1, 2011, in Iraq, Syria, or countries designated as state sponsors of terrorism, which currently includes Iran and Sudan. It also prohibits VWP travel for the individuals who are dual nationals, as of one of these countries and a VWP country.    Well, we began implementing some of the changes required by the new law very quickly. We have already revoked or cancelled 17,000 ESTA travel authorizations. We have established, in conjunction with our interagency partners, a terrorist travel prevention cell at our National targeting center.    The cell will enhance the Department's efforts to identify and prevent foreign terrorist fighter travel. A subset of that cell's mission will be to scrutinize individual waiver requests on a case-by-case basis that is permitted under the new law.    Additionally, CBP will add new fields to the ESTA application by the end of the month, and we will ask additional questions to further improve our ability to vet individual travelers and make decisions about their eligibility, in accordance with the recent changes.    Well, as terrorists change their methods and tactics, and DHS is going to continue to work with our Federal and international partners to counter foreign fighter threats to the homeland.    We will continue to strengthen our travel security programs and systems, enhance our capabilities to secure international air travel against terrorists and others who threaten the safety of the traveling public and the security of our Nation.    Chairman McCaul, Ranking Member Thompson, and Members of the committee, thank you for the opportunity to testify today. I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman McCaul. Thank you, Commissioner. We appreciate your service.    The Chair recognizes Ms. Johnson for her testimony.</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnson. Good morning Chairman McCaul, Ranking Member Thompson, and distinguished Members of the committee.    Thank you for this opportunity to testify today on implementation of the Visa Waiver Program Improvement and Terrorist Travel Prevention Act of 2015. It is a pleasure to be here today with Commissioner Kerlikowske.    My written statement, which I request be put into the record, describes how the Department of State has worked closely with the Department of Homeland Security to implement this new law, while ensuring our top priority remains the protection of the U.S. homeland.    As deputy coordinator for homeland security and State's counterterrorism bureau, security of the homeland and the safety of our citizens is my--citizens is my constant focus. I welcome this legislation to strengthen the Visa Waiver Program.    The VWP is a key counterterrorism tool that helps protect our homeland every single day. Our VWP partners must uphold strict security standards, such as sharing information on known and suspected terrorists and criminals, and reporting lost and stolen passports to INTERPOL.    We use VWP benefits to encourage greater information sharing and more systemic screening by our allies. VWP requirements give our partners the impetus to tighten security in ways that can be politically challenging for them.    The U.S. Government assesses each VWP country's compliance at least once every 2 years, inspecting airports, sea ports, land borders, and passport production and issuance facilities. No other program enables the U.S. Government to conduct such broad and consequential assessments of foreign partners' security operations.    I would also like to underscore that the VWP is not a free pass to travel to the United States. All travelers coming to the United States undergo checks for ties to terrorism and are subject to multiple layers of security, regardless of whether they have a visa, or they come in under the VWP.    As the commissioner has noted, citizens of VWP countries apply to enter the United States via the ESTA. CBP checks ESTA forms against U.S. terrorist and criminal databases before travelers are allowed to use the VWP.    This information that our partners provide, under the information sharing, as part of the VWP, is a vital component of our terrorist and criminal databases. The layer of security continues beyond this step. All travelers are screened by CBP's National Targeting Center before they board an airplane and after they are admitted into the United States.    ESTAs are continuously reviewed and revoked immediately if new intelligence comes to light. Watchlisting, screening, and information intelligence gathering are some of the best tools for countering the threat of foreign terrorist travel.    These tools are most effective when we are working in collaboration with our VWP partners. That is why the VWP is such an important counterterrorism partnership. The 38 countries that are part of the VWP include many of our closest allies, and they are proud of their status. VWP membership is so prized that many countries not in the VWP complete program requirements in the hope of joining.    I would like to speak to the National security waivers authorized under the law. Under the new law, the Secretary of Homeland Security has the authority to waive restrictions, if he determines that such a waiver is in the National security or law enforcement interest of the United States.    We understand that Congress did not want to create blanket exemptions to the law, and that is why these waivers will be implemented on a case-by-case basis. After consulting with the Secretary of State, the Secretary of Homeland Security has determined that is the general matter, it is in the National security interests of the United States to administer waivers on a case-by-case basis and for certain types of ESTA applicants.    I want to stress that these are not blanket waivers. Again, the waivers would be administered on a case-by-case basis and are narrowly tailored to specific National security interests. We publicly outlined categories in which a waiver might apply to provide guidance to citizens of VWP countries.    There is lot of confusion about this law among some of our closest allies, and we needed to let them know which of their citizens might receive a waiver and how the process would work. We noted in our guidance that each ESTA applicant would be considered on a case-by-case basis and reviewed carefully.    In no incidence is travel under the VWP guaranteed for a person in one of the identified categories. I would like to share some examples of why we think these narrowly-tailored waivers are in our National security interest.    For instance, we rely on employees of the International Atomic Energy Agency for the technical expertise to fight the spread of nuclear weapons around the world. Yet, without a waiver, IAEA employees, who went to Iran to pursue our National security objective of preventing Iran from obtaining a nuclear weapon, would be considered security risks.    Without waivers, UNHCR and World Food Program staff, who do critical work helping refugees in Iraq or feeding starving children in Darfur, Sudan, would be unable to travel to the United States under the VWP.    The European Union is an essential partner to us around the world. Without a waiver, representatives of E.U. institutions, including E.U. parliamentarians, would be ineligible to travel to the United States under the VWP.    Additionally, we work closely with officials of the E.U. Counterterrorism Coordinator's office, who travel frequently to Iraq. Without waivers, they would be denied ESTAs. These waivers will allow us to maintain and build our relationships, in cooperation with these institutions, toward shared counterterrorism goals.    Business representatives or NGO employees, who have traveled to Iraq to help with schools, roads, and hospitals, also would be denied travel under VWP, even though they are doing work we have encouraged to help stabilize and rebuild that country's economy.    In Syria, the world relies on journalists facing grave danger to report on human rights violations, allegations of chemical weapon use, and the brutality of that on-going conflict that we might otherwise never know about. Yet, without waivers, they, too, could be denied VWP travel.    I recognize that participating in the VWP is a privilege and not a right, but denying VWP participation to citizens of member countries, who are doing work we promote and support, is counter to our National security interests.    I want to stress, again, that every VWP travel considered for a waiver will be closely examined to see if they meet the stringent requirements to travel under the VWP. A case-by-case application of waivers in these narrow instances, allows us to advance our National security interests and directs our resources to higher-risk threats.    As I have discussed, we believe there are significant National security interests for the United States to utilize this waiver, and we do so without compromising the safety of our fellow citizens at home and overseas and the security of the traveling public.    Mr. Chairman, Mr. Ranking Member Thompson, and distinguished Members of the committee, thank you so very much for having me here today. I look forward to your questions.</t>
   </si>
   <si>
@@ -241,6 +262,9 @@
     <t xml:space="preserve">    Chairman McCaul. Chair now recognizes the author of the Visa Waiver Program bill, Mrs. Miller.</t>
   </si>
   <si>
+    <t>Miller</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Miller. Thank you, Mr. Chairman. I certainly appreciate you holding this hearing today. This is an important issue, and I appreciate the witnesses being here.    Ms. Johnson, as the Chairman mentioned, you are a career diplomat, not really a political type. I think we would have preferred someone--because it seems to me to be a political determination made by this administration.    You mentioned, in your testimony, there, you were mentioning various people, people or groups, that would be inconvenienced by this bill. But, again, as the Chairman mentioned, these issues were not either raised, or they were negotiated away during the negotiations. He did put up some of these slides. I won't ask the staff to do that again.    But I will just mention these, because I think it does bear note, here, because we were negotiating, we, being the Congress, were negotiating in very good faith with the White House and the various agencies included.    Here is a--and this particular issue, by the way, somebody mentioned and it sort of went quickly because it went in the omni, but the reality is, really, we had introduced this legislation a couple of years ago and then, again, reintroduced it during this Congress.    It went through--we had a number of hearings. Mr. Commissioner, you have been--you had the opportunity to testify before our subcommittee, as well as the full committee, as well, on numerous occasions.    So this is an issue that went through regular order, through our subcommittee, through our full committee. We were--there were many, on both sides of the aisle, who were very desirous of having floor action on this. We were, you know, really--then came Paris. So, we had this bill ready to go, and that is really how it ended up in the omni, there, at the end.    But at one time we were--these emails showing--I was just going to briefly say, proposed exemptions for journalists, relief workers, business and humanitarian travel, they accept only exemptions for government officials and military personal. Okay. Everybody agreed to that, when we were negotiating this just 3 months ago.    Here is another email. Negotiations continue, bipartisan House committee leadership staff--bipartisan. The White House, the Department of Homeland Security, State Department, the exemption for humanitarian travel are, once again, rejected by everybody. Rejected. Here is the email that was up on the screen. The administration supports this legislation, thanks to all.    Then here is another one. I am not going to say who sent all these, but here, ``I have spoken to State. They do not request any additional edits. The administration does not request any changes at this time.''    So I just point those out, because it is certainly clear, I believe, abundantly clear, that the White House negotiated in very bad faith. Again, it is not a partisan issue. It is a very bipartisan issue, and I don't know how Congress can come to an agreement with the White House, with an administration that simply turns around and then breaks the agreement, certainly violates the law, in my estimation, as well.    So, I guess, my question, Ms. Johnson, you know, to be very clear of the changes of the law, they don't bar people who have traveled to either Iran, Iraq, Syria, or Sudan from entering the country. They just simply have to go through the same processes that countries in 100--people from 150 other countries have to use, when they come into the country.    I would say, Ms. Johnson, do you think, from the Department of State, do you think that the visa interview is an unreasonable bar for an individual who actually has visited a country that is a state sponsor of terrorism?</t>
   </si>
   <si>
@@ -256,6 +280,12 @@
     <t>412506</t>
   </si>
   <si>
+    <t>Payne</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you, Mr. Chairman and Ranking Member.    Commissioner, while the recent VWP legislation prohibits individuals with recent travel to citizenship in Iraq, Iran, Sudan, or Syria from traveling to the United States under the program, it authorizes the Secretary of Homeland Security to issue the waiver, if in doing so in the law enforcement or National security interests of the United States.    What circumstances would warrant a waiver? What process will be used to determine whether a traveler would be issued a waiver? What role will CBP play in that process?</t>
   </si>
   <si>
@@ -283,6 +313,12 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman.    Mr. Commissioner, could you define, as in the law, what law enforcement and National security interests of the United States are?</t>
   </si>
   <si>
@@ -364,6 +400,12 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me thank the Chairman and the Ranking Member. This is an important hearing. But let me also thank the witnesses. I come with a, sort-of, a dual approach in my questions, respecting both of you.    Commissioner, thank you for your service.    Thank you, Ms. Johnson.    I am going to join the Chairman and wish that we had a person in the level of Secretary, assistant secretary. When I say that, no disregard to your expertise, and to thank you for your presence here today.    As I said, when I say dual purpose, I am going to be a little bit askance. Let me ask the commissioner, Mr. Commissioner, are you--do you have an intent to break the law?</t>
   </si>
   <si>
@@ -427,6 +469,12 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman.    Ms. Johnson, maybe you can help me clarify something. You said you are not a lawyer. I am not a lawyer. But something you had said earlier, maybe you can help me clarify. There appears to be two exceptions that we are talking about to this law.    One was in response to Mr. Thompson in his questioning. He brought up waivers, and you said that these are not waivers, they are exceptions--or exemptions. Is that correct?</t>
   </si>
   <si>
@@ -478,6 +526,12 @@
     <t>412432</t>
   </si>
   <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Cedric</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Richmond. Mr. Chairman.    I guess I will pick up where my colleague just left off, in trying to determine the exemptions which, my understanding, would be outright exemptions of categories of people, and then waivers, as you all define as on a case-by-case basis and the Secretary has the authority to do that.    My colleague quoted John Conyers, who I certainly respect and made him an authority, but John Conyers is also asking for us to vote on voting rights. I don't hear anyone quoting him or moving to do that.    What it sounds like to me is that you all were asking for the blanket exemption for those categories, and, when you didn't get it, some lawyer in your office said, well, it is not a big deal, because you can do it by waivers on a case-by-case basis.    Is that probably fair, that someone came to you and said that you could do exactly what you want to do by waiver, as opposed to, I guess, continuing to negotiate an exemption?</t>
   </si>
   <si>
@@ -529,6 +583,12 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman.    Ms. Johnson, I, based on your testimony earlier, I know that you played a role, with respect to the negotiation of text, for H.R. 158. Because of that, I know that you were aware that these special categories of exemptions, travel for humanitarian purposes, for business purposes, and for journalistic purposes, were requested by the State Department and were rejected by Congressional negotiators, as reflected in the emails that Chairman McCaul put on the screen earlier. Correct?</t>
   </si>
   <si>
@@ -595,6 +655,12 @@
     <t>412622</t>
   </si>
   <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman. Mr. Chairman, let me preface my remarks, my questions, Mr. Chairman, by just saying that, while I am very respectful of the Commissioner and Ms. Johnson being here and appreciate them being here, very much, they are, Mr. Chairman, in my opinion, they are just overseers and implementers of this.    We need the people here, testifying before us, who have actually had the responsibility of doing this. That is the White House, the Secretary of State, the Secretary of Homeland Security.    So, Mr. Chairman, I hope that we can work toward getting them here to answer these questions, again, respectfully, to the witnesses who are here today.    Having said that, Mr. Chairman, Ms. Johnson, respectfully, I remind you, you are under oath. Whose decision was it? Whose decision was it to ignore the intent and the plain language of the law? Whose decision was that? To create these 5 categories of exemptions, whose decision was it?</t>
   </si>
   <si>
@@ -673,6 +739,12 @@
     <t>412670</t>
   </si>
   <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    Ms. Johnson, I want to go back to something you said a little earlier. I think you were touching on it just a few minutes ago, in responding to my colleague from Georgia, Mr. Carter, about this Iranian's--if you used the word are offended by the travel bans, or it is a problem there. I don't understand why that is an overwhelming concern of ours, that is offensive to them. Can you expound on that make and make sure I heard that correctly, or is that----</t>
   </si>
   <si>
@@ -704,6 +776,9 @@
   </si>
   <si>
     <t>412649</t>
+  </si>
+  <si>
+    <t>Katko</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Chairman.</t>
@@ -1142,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,7 +1225,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,5909 +1247,6924 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
       <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
       <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
       <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
       <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
       <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
       <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
       <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G68" t="s">
+        <v>88</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G70" t="s">
+        <v>88</v>
+      </c>
       <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G72" t="s">
+        <v>88</v>
+      </c>
       <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G74" t="s">
+        <v>88</v>
+      </c>
       <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G78" t="s">
+        <v>99</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G80" t="s">
+        <v>99</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G82" t="s">
+        <v>99</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s">
+        <v>99</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G86" t="s">
+        <v>99</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G88" t="s">
+        <v>99</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>88</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G90" t="s">
+        <v>99</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>88</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G92" t="s">
+        <v>99</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>88</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>88</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G96" t="s">
+        <v>99</v>
+      </c>
       <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>88</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G98" t="s">
+        <v>99</v>
+      </c>
       <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>88</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G100" t="s">
+        <v>99</v>
+      </c>
       <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>115</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G102" t="s">
+        <v>128</v>
+      </c>
       <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>115</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G104" t="s">
+        <v>128</v>
+      </c>
       <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>115</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G106" t="s">
+        <v>128</v>
+      </c>
       <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>115</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G108" t="s">
+        <v>128</v>
+      </c>
       <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>115</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G110" t="s">
+        <v>128</v>
+      </c>
       <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>115</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G112" t="s">
+        <v>128</v>
+      </c>
       <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>25</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>115</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G114" t="s">
+        <v>128</v>
+      </c>
       <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s">
+        <v>25</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>115</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G116" t="s">
+        <v>128</v>
+      </c>
       <c r="H116" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>115</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G118" t="s">
+        <v>128</v>
+      </c>
       <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s">
+        <v>25</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>115</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G120" t="s">
+        <v>128</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>115</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G122" t="s">
+        <v>128</v>
+      </c>
       <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>136</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G124" t="s">
+        <v>151</v>
+      </c>
       <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>136</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G126" t="s">
+        <v>151</v>
+      </c>
       <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>136</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G128" t="s">
+        <v>151</v>
+      </c>
       <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>136</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G130" t="s">
+        <v>151</v>
+      </c>
       <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G131" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>136</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G132" t="s">
+        <v>151</v>
+      </c>
       <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s">
+        <v>28</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>136</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G134" t="s">
+        <v>151</v>
+      </c>
       <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s">
+        <v>28</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>136</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G136" t="s">
+        <v>151</v>
+      </c>
       <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G137" t="s">
+        <v>28</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>136</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G138" t="s">
+        <v>151</v>
+      </c>
       <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>153</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G140" t="s">
+        <v>170</v>
+      </c>
       <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s">
+        <v>28</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>153</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G142" t="s">
+        <v>170</v>
+      </c>
       <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s">
+        <v>28</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>153</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G144" t="s">
+        <v>170</v>
+      </c>
       <c r="H144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s">
+        <v>28</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>153</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G146" t="s">
+        <v>170</v>
+      </c>
       <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s">
+        <v>28</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>153</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G148" t="s">
+        <v>170</v>
+      </c>
       <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s">
+        <v>28</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>153</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G150" t="s">
+        <v>170</v>
+      </c>
       <c r="H150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s">
+        <v>28</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>153</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G152" t="s">
+        <v>170</v>
+      </c>
       <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I152" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G153" t="s">
+        <v>28</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>153</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G154" t="s">
+        <v>170</v>
+      </c>
       <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I154" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>170</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G156" t="s">
+        <v>189</v>
+      </c>
       <c r="H156" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I156" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s">
+        <v>28</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>170</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G158" t="s">
+        <v>189</v>
+      </c>
       <c r="H158" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I158" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G159" t="s">
+        <v>28</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>170</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G160" t="s">
+        <v>189</v>
+      </c>
       <c r="H160" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G161" t="s">
+        <v>28</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>170</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G162" t="s">
+        <v>189</v>
+      </c>
       <c r="H162" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I162" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G163" t="s">
+        <v>28</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>170</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G164" t="s">
+        <v>189</v>
+      </c>
       <c r="H164" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I164" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G165" t="s">
+        <v>28</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>170</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G166" t="s">
+        <v>189</v>
+      </c>
       <c r="H166" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I166" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G167" t="s">
+        <v>28</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>170</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G168" t="s">
+        <v>189</v>
+      </c>
       <c r="H168" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I168" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G169" t="s">
+        <v>28</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>170</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G170" t="s">
+        <v>189</v>
+      </c>
       <c r="H170" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I170" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G171" t="s">
+        <v>28</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>170</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G172" t="s">
+        <v>189</v>
+      </c>
       <c r="H172" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G173" t="s">
+        <v>28</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>170</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G174" t="s">
+        <v>189</v>
+      </c>
       <c r="H174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I174" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G175" t="s">
+        <v>28</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>170</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G176" t="s">
+        <v>189</v>
+      </c>
       <c r="H176" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G177" t="s">
+        <v>28</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>170</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G178" t="s">
+        <v>189</v>
+      </c>
       <c r="H178" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
       <c r="H179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>192</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G180" t="s">
+        <v>213</v>
+      </c>
       <c r="H180" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I180" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G181" t="s">
+        <v>28</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>192</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G182" t="s">
+        <v>213</v>
+      </c>
       <c r="H182" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I182" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G183" t="s">
+        <v>28</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>192</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G184" t="s">
+        <v>213</v>
+      </c>
       <c r="H184" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I184" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G185" t="s">
+        <v>28</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>192</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G186" t="s">
+        <v>213</v>
+      </c>
       <c r="H186" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I186" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s">
+        <v>28</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>192</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G188" t="s">
+        <v>213</v>
+      </c>
       <c r="H188" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I188" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s">
+        <v>28</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>192</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G190" t="s">
+        <v>213</v>
+      </c>
       <c r="H190" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I190" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>28</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>192</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G192" t="s">
+        <v>213</v>
+      </c>
       <c r="H192" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I192" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s">
+        <v>28</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>192</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G194" t="s">
+        <v>213</v>
+      </c>
       <c r="H194" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I194" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G195" t="s">
+        <v>28</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>192</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G196" t="s">
+        <v>213</v>
+      </c>
       <c r="H196" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I196" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G197" t="s">
+        <v>28</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>192</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G198" t="s">
+        <v>213</v>
+      </c>
       <c r="H198" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I198" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G199" t="s">
+        <v>28</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>192</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G200" t="s">
+        <v>213</v>
+      </c>
       <c r="H200" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I200" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>19</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G201" t="s">
+        <v>28</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>192</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G202" t="s">
+        <v>213</v>
+      </c>
       <c r="H202" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="I202" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G203" t="s">
+        <v>28</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>192</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G204" t="s">
+        <v>213</v>
+      </c>
       <c r="H204" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I204" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
       <c r="H205" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>218</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>240</v>
+      </c>
+      <c r="G206" t="s">
+        <v>241</v>
+      </c>
       <c r="H206" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>242</v>
+      </c>
+      <c r="I206" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>19</v>
-      </c>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G207" t="s">
+        <v>28</v>
+      </c>
+      <c r="H207" t="s"/>
+      <c r="I207" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>218</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>240</v>
+      </c>
+      <c r="G208" t="s">
+        <v>241</v>
+      </c>
       <c r="H208" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>242</v>
+      </c>
+      <c r="I208" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>19</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s">
+        <v>28</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>218</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>240</v>
+      </c>
+      <c r="G210" t="s">
+        <v>241</v>
+      </c>
       <c r="H210" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>242</v>
+      </c>
+      <c r="I210" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>19</v>
-      </c>
-      <c r="G211" t="s"/>
-      <c r="H211" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s">
+        <v>28</v>
+      </c>
+      <c r="H211" t="s"/>
+      <c r="I211" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>218</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>240</v>
+      </c>
+      <c r="G212" t="s">
+        <v>241</v>
+      </c>
       <c r="H212" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>242</v>
+      </c>
+      <c r="I212" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>19</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s">
+        <v>25</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>218</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>240</v>
+      </c>
+      <c r="G214" t="s">
+        <v>241</v>
+      </c>
       <c r="H214" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>242</v>
+      </c>
+      <c r="I214" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
       <c r="H215" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>229</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G216" t="s">
+        <v>254</v>
+      </c>
       <c r="H216" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I216" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
       <c r="H217" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>229</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G218" t="s">
+        <v>254</v>
+      </c>
       <c r="H218" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I218" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>19</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G219" t="s">
+        <v>25</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>19</v>
-      </c>
-      <c r="G220" t="s"/>
-      <c r="H220" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G220" t="s">
+        <v>28</v>
+      </c>
+      <c r="H220" t="s"/>
+      <c r="I220" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>229</v>
-      </c>
-      <c r="G221" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G221" t="s">
+        <v>254</v>
+      </c>
       <c r="H221" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I221" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>19</v>
-      </c>
-      <c r="G222" t="s"/>
-      <c r="H222" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G222" t="s">
+        <v>25</v>
+      </c>
+      <c r="H222" t="s"/>
+      <c r="I222" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>19</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G223" t="s">
+        <v>28</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>229</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G224" t="s">
+        <v>254</v>
+      </c>
       <c r="H224" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I224" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>19</v>
-      </c>
-      <c r="G225" t="s"/>
-      <c r="H225" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G225" t="s">
+        <v>28</v>
+      </c>
+      <c r="H225" t="s"/>
+      <c r="I225" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>229</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G226" t="s">
+        <v>254</v>
+      </c>
       <c r="H226" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I226" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>19</v>
-      </c>
-      <c r="G227" t="s"/>
-      <c r="H227" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G227" t="s">
+        <v>28</v>
+      </c>
+      <c r="H227" t="s"/>
+      <c r="I227" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>229</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G228" t="s">
+        <v>254</v>
+      </c>
       <c r="H228" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I228" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
-      </c>
-      <c r="G229" t="s"/>
-      <c r="H229" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G229" t="s">
+        <v>28</v>
+      </c>
+      <c r="H229" t="s"/>
+      <c r="I229" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>229</v>
-      </c>
-      <c r="G230" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G230" t="s">
+        <v>254</v>
+      </c>
       <c r="H230" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I230" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>19</v>
-      </c>
-      <c r="G231" t="s"/>
-      <c r="H231" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G231" t="s">
+        <v>28</v>
+      </c>
+      <c r="H231" t="s"/>
+      <c r="I231" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>229</v>
-      </c>
-      <c r="G232" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G232" t="s">
+        <v>254</v>
+      </c>
       <c r="H232" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I232" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>19</v>
-      </c>
-      <c r="G233" t="s"/>
-      <c r="H233" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>28</v>
+      </c>
+      <c r="H233" t="s"/>
+      <c r="I233" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>229</v>
-      </c>
-      <c r="G234" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G234" t="s">
+        <v>254</v>
+      </c>
       <c r="H234" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I234" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>19</v>
-      </c>
-      <c r="G235" t="s"/>
-      <c r="H235" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G235" t="s">
+        <v>28</v>
+      </c>
+      <c r="H235" t="s"/>
+      <c r="I235" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>229</v>
-      </c>
-      <c r="G236" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G236" t="s">
+        <v>254</v>
+      </c>
       <c r="H236" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I236" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>19</v>
-      </c>
-      <c r="G237" t="s"/>
-      <c r="H237" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G237" t="s">
+        <v>28</v>
+      </c>
+      <c r="H237" t="s"/>
+      <c r="I237" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F238" t="s">
-        <v>229</v>
-      </c>
-      <c r="G238" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G238" t="s">
+        <v>254</v>
+      </c>
       <c r="H238" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I238" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F239" t="s">
-        <v>19</v>
-      </c>
-      <c r="G239" t="s"/>
-      <c r="H239" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G239" t="s">
+        <v>25</v>
+      </c>
+      <c r="H239" t="s"/>
+      <c r="I239" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F240" t="s">
-        <v>229</v>
-      </c>
-      <c r="G240" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G240" t="s">
+        <v>254</v>
+      </c>
       <c r="H240" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I240" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
-      </c>
-      <c r="G241" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G241" t="s">
+        <v>13</v>
+      </c>
       <c r="H241" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I241" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E242" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F242" t="s">
-        <v>19</v>
-      </c>
-      <c r="G242" t="s"/>
-      <c r="H242" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G242" t="s">
+        <v>28</v>
+      </c>
+      <c r="H242" t="s"/>
+      <c r="I242" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E243" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F243" t="s">
-        <v>11</v>
-      </c>
-      <c r="G243" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G243" t="s">
+        <v>13</v>
+      </c>
       <c r="H243" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I243" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E244" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F244" t="s">
-        <v>19</v>
-      </c>
-      <c r="G244" t="s"/>
-      <c r="H244" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G244" t="s">
+        <v>25</v>
+      </c>
+      <c r="H244" t="s"/>
+      <c r="I244" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E245" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F245" t="s">
-        <v>11</v>
-      </c>
-      <c r="G245" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G245" t="s">
+        <v>13</v>
+      </c>
       <c r="H245" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I245" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E246" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F246" t="s">
-        <v>19</v>
-      </c>
-      <c r="G246" t="s"/>
-      <c r="H246" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G246" t="s">
+        <v>25</v>
+      </c>
+      <c r="H246" t="s"/>
+      <c r="I246" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E247" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
-      </c>
-      <c r="G247" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G247" t="s">
+        <v>13</v>
+      </c>
       <c r="H247" t="s">
-        <v>259</v>
+        <v>14</v>
+      </c>
+      <c r="I247" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
